--- a/src/test/resource/DataSheet/AmazonDatasheet.xlsx
+++ b/src/test/resource/DataSheet/AmazonDatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahin\ideaProjects\AmazonAutomationProject\src\test\resource\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8725FEBC-25AF-4D97-BEB8-8F0F956F80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98504272-C5F0-4015-A522-2743EACF7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Mahin</t>
+    <t>Shirts</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
